--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3745.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3745.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23426248094007</v>
+        <v>1.232145190238953</v>
       </c>
       <c r="B1">
-        <v>2.464465892133066</v>
+        <v>5.213141918182373</v>
       </c>
       <c r="C1">
-        <v>4.774198375281124</v>
+        <v>1.312560677528381</v>
       </c>
       <c r="D1">
-        <v>3.138156430785276</v>
+        <v>0.8791686296463013</v>
       </c>
       <c r="E1">
-        <v>1.166865890546899</v>
+        <v>0.7065007090568542</v>
       </c>
     </row>
   </sheetData>
